--- a/Documentation/ESC/pinMapping.xlsx
+++ b/Documentation/ESC/pinMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prj\qc\Documentation\ESC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AB616-7173-4E58-8B33-2F7D0354EA0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8C5B4-5823-40F3-B3D0-E3D55B3F85C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA712D6F-27C2-4467-A9D7-DE46DEF4EEBD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="117">
   <si>
     <t>PIN Number</t>
   </si>
@@ -147,9 +147,6 @@
     <t>SPI2_MOSI</t>
   </si>
   <si>
-    <t>flight computer</t>
-  </si>
-  <si>
     <t>VSS</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>TDO</t>
   </si>
   <si>
-    <t>spi1</t>
-  </si>
-  <si>
     <t>VBAT</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>NRST</t>
   </si>
   <si>
-    <t>I/O</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -222,12 +213,6 @@
     <t>I2C1_SDA</t>
   </si>
   <si>
-    <t>CAN1_RX</t>
-  </si>
-  <si>
-    <t>CAN1_TX</t>
-  </si>
-  <si>
     <t>Motor Driver</t>
   </si>
   <si>
@@ -267,16 +252,137 @@
     <t>External Coms</t>
   </si>
   <si>
-    <t>scratch</t>
-  </si>
-  <si>
-    <t>sratch</t>
-  </si>
-  <si>
     <t>Free I/O</t>
   </si>
   <si>
     <t>none yet</t>
+  </si>
+  <si>
+    <t>flight computer (mb CAN1_RX)</t>
+  </si>
+  <si>
+    <t>flight computer (mb CAN1_TX)</t>
+  </si>
+  <si>
+    <t>Port Name</t>
+  </si>
+  <si>
+    <t>Port 
+Name</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>PH0</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PH3</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PB9</t>
   </si>
 </sst>
 </file>
@@ -515,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,9 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -579,6 +682,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,637 +1006,704 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="J2:Q34"/>
+  <dimension ref="H2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K2" s="14" t="s">
+    <row r="2" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I2" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I4" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I5" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I6" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="I8" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="8:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="23">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H12" s="15">
+        <f>H11+1</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="23">
+        <f>L11+1</f>
+        <v>26</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="19">
+        <f t="shared" ref="H13:H34" si="0">H12+1</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" ref="L13:L34" si="1">L12+1</f>
+        <v>27</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="26">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="26">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="26">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="28">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H29" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="28">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="20">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K3" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K4" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K5" s="19" t="s">
+      <c r="N30" s="7"/>
+      <c r="O30" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="22">
+        <f>H30+1</f>
+        <v>21</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="28">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="28">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K6" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="10:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="J10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="24">
-        <v>25</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="16">
-        <f>J11+1</f>
-        <v>2</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="24">
-        <f>N11+1</f>
-        <v>26</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J13" s="20">
-        <f t="shared" ref="J13:J34" si="0">J12+1</f>
-        <v>3</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="N32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H33" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="12">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="24">
-        <f t="shared" ref="N13:N34" si="1">N12+1</f>
-        <v>27</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J14" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="M33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="21">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="24">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J15" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="24">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J16" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="24">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="24">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J18" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="27">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J19" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="27">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J20" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="18">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J21" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="13">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O21" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J22" s="23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J23" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="18">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J24" s="23">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="18">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J25" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="18">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J26" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="18">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J27" s="23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="27">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="23">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="29">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="29">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="21">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="23">
-        <f>J30+1</f>
-        <v>21</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="29">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="29">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="13">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="22">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="7"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Documentation/ESC/pinMapping.xlsx
+++ b/Documentation/ESC/pinMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prj\qc\Documentation\ESC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8C5B4-5823-40F3-B3D0-E3D55B3F85C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0EBE1-278A-4830-9AEC-E29ADE11C714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA712D6F-27C2-4467-A9D7-DE46DEF4EEBD}"/>
   </bookViews>
@@ -1008,8 +1008,8 @@
   </sheetPr>
   <dimension ref="H2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>87</v>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>89</v>
@@ -1508,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>91</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>93</v>
